--- a/experiments/long_horizon/MSE_MAE_result.xlsx
+++ b/experiments/long_horizon/MSE_MAE_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonghyunyoo/Desktop/Develop/N-HiTS_2/experiments/long_horizon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF5FCD2B-73CA-9440-BC60-3F42F899B40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33950B28-9F1F-8B4A-AB92-EC7B46EAABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="1360" windowWidth="27720" windowHeight="17500" xr2:uid="{D6AE0A0B-B91F-074F-B95F-A207E73DEAEB}"/>
+    <workbookView xWindow="3460" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{D6AE0A0B-B91F-074F-B95F-A207E73DEAEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -428,13 +428,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,98 +518,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,7 +972,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="N20" sqref="N19:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -898,320 +984,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" thickBot="1">
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="31"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:20" ht="19" thickTop="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="15"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="3"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="15"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="3"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="6" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="15"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="15"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="15"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="43">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="43">
         <v>0.51</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7">
+      <c r="G8" s="7"/>
+      <c r="H8" s="6">
         <v>5</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="43">
         <v>1.01</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="43">
         <v>0.66</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="7">
+      <c r="K8" s="44"/>
+      <c r="L8" s="43">
         <v>5</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="43">
         <v>0.49</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="43">
         <v>0.51</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="7">
+      <c r="O8" s="45"/>
+      <c r="P8" s="43">
         <v>5</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="43">
         <v>0.92</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="43">
         <v>0.74</v>
       </c>
-      <c r="S8" s="33"/>
-      <c r="T8" s="15"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="3"/>
-      <c r="B9" s="23"/>
-      <c r="D9" s="7">
+      <c r="B9" s="18"/>
+      <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>0.37</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>0.41</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7">
+      <c r="G9" s="7"/>
+      <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>0.52</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>10</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="8">
         <v>0.45</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="8">
         <v>0.48</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>10</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>0.85</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="8">
         <v>0.7</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="15"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="3"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="18"/>
       <c r="J10" s="4"/>
       <c r="L10" s="2"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="15"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="3"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="18"/>
       <c r="J11" s="4"/>
       <c r="L11" s="2"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="15"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:20" ht="19" thickBot="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="34"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:20" ht="19" thickTop="1">
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1222,13 +1308,13 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
